--- a/NUM_PAG.xlsx
+++ b/NUM_PAG.xlsx
@@ -572,488 +572,488 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>00001__1500705982.pdf</t>
+          <t>00001__1500632758.pdf</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>00002__1500705992.pdf</t>
+          <t>00002__1500632915.pdf</t>
         </is>
       </c>
       <c r="B3" s="15" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>00003__1500707485.pdf</t>
+          <t>00003__1500632948.pdf</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>00004__1500718710.pdf</t>
+          <t>00004__1500632974.pdf</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>00005__1500718789.pdf</t>
+          <t>00005__1500633018.pdf</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>00006__1500718882.pdf</t>
+          <t>00006__1500633056.pdf</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>00007__1500719013.pdf</t>
+          <t>00007__1500633070.pdf</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
         <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>00008__1500719049.pdf</t>
+          <t>00008__1500633126.pdf</t>
         </is>
       </c>
       <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
         <v>6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>00009__1500719207.pdf</t>
+          <t>00009__1500633135.pdf</t>
         </is>
       </c>
       <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
         <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>00010__1500728840.pdf</t>
+          <t>00010__1500633151.pdf</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>00011__1500731981.pdf</t>
+          <t>00011__1500633309.pdf</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>00012__1500731993.pdf</t>
+          <t>00012__1500633468.pdf</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>00013__1500731994.pdf</t>
+          <t>00013__1500633487.pdf</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>00014__1500732000.pdf</t>
+          <t>00014__1500633488.pdf</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>00015__1500732006.pdf</t>
+          <t>00015__1500633517.pdf</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>00016__1500732007.pdf</t>
+          <t>00016__1500633518.pdf</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>00017__1500732011.pdf</t>
+          <t>00017__1500633524.pdf</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>00018__1500732038.pdf</t>
+          <t>00018__1500633526.pdf</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>00019__1500732983.pdf</t>
+          <t>00019__1500633534.pdf</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>00020__1500736286.pdf</t>
+          <t>00020__1500633573.pdf</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>00021__1500736302.pdf</t>
+          <t>00021__1500633580.pdf</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>00022__1500736303.pdf</t>
+          <t>00022__1500633594.pdf</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>00023__1500736305.pdf</t>
+          <t>00023__1500633608.pdf</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>00024__1500736308.pdf</t>
+          <t>00024__1500633620.pdf</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>00025__1500736309.pdf</t>
+          <t>00025__1500633636.pdf</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>00026__1500736310.pdf</t>
+          <t>00026__1500633646.pdf</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>00027__1500736311.pdf</t>
+          <t>00027__1500633652.pdf</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>00028__1500736312.pdf</t>
+          <t>00028__1500633655.pdf</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>00029__1500736313.pdf</t>
+          <t>00029__1500633722.pdf</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>00030__1500736314.pdf</t>
+          <t>00030__1500633735.pdf</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>00031__1500736315.pdf</t>
+          <t>00031__1500633744.pdf</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>00032__1500736327.pdf</t>
+          <t>00032__1500633748.pdf</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>00033__1500736359.pdf</t>
+          <t>00033__1500633765.pdf</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>00034__1500736455.pdf</t>
+          <t>00034__1500633833.pdf</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>00035__1500736526.pdf</t>
+          <t>00035__1500682630.pdf</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>00036__1500736527.pdf</t>
+          <t>00036__1500704983.pdf</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>00037__1500736528.pdf</t>
+          <t>00037__1500705303.pdf</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>00038__1500736529.pdf</t>
+          <t>00038__1500705304.pdf</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1066,7 +1066,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>00039__1500736542.pdf</t>
+          <t>00039__1500705366.pdf</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1079,37 +1079,37 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>00040__1500736544.pdf</t>
+          <t>00040__1500705375.pdf</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>00041__1500736549.pdf</t>
+          <t>00041__1500705376.pdf</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>00042__1500736564.pdf</t>
+          <t>00042__1500705378.pdf</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="6" t="n">
         <v>2</v>
@@ -1118,20 +1118,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>00043__1500736580.pdf</t>
+          <t>00043__1500705379.pdf</t>
         </is>
       </c>
       <c r="B44" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C44" s="8" t="n">
         <v>4</v>
-      </c>
-      <c r="C44" s="8" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>00044__1500737297.pdf</t>
+          <t>00044__1500705754.pdf</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1144,11 +1144,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>00045__1500737305.pdf</t>
+          <t>00045__1500705794.pdf</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
@@ -1157,11 +1157,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>00046__1500737306.pdf</t>
+          <t>00046__1500706000.pdf</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
         <v>2</v>
@@ -1170,85 +1170,85 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>00047__1500737500.pdf</t>
+          <t>00047__1500706037.pdf</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>00048__1500737510.pdf</t>
+          <t>00048__1500706040.pdf</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>00049__1500737511.pdf</t>
+          <t>00049__1500706041.pdf</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>00050__1500737512.pdf</t>
+          <t>00050__1500706042.pdf</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>00051__1500737513.pdf</t>
+          <t>00051__1500706043.pdf</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>00052__1500737546.pdf</t>
+          <t>00052__1500706044.pdf</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>00053__1500737547.pdf</t>
+          <t>00053__1500706047.pdf</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1261,7 +1261,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>00054__1500737548.pdf</t>
+          <t>00054__1500706048.pdf</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1274,7 +1274,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>00055__1500737549.pdf</t>
+          <t>00055__1500706050.pdf</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1287,124 +1287,124 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>00056__1500737593.pdf</t>
+          <t>00056__1500706051.pdf</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>00057__1500737595.pdf</t>
+          <t>00057__1500706052.pdf</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>00058__1500737596.pdf</t>
+          <t>00058__1500706053.pdf</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>00059__1500737600.pdf</t>
+          <t>00059__1500710170.pdf</t>
         </is>
       </c>
       <c r="B60" t="n">
+        <v>6</v>
+      </c>
+      <c r="C60" t="n">
         <v>3</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>00060__1500737601.pdf</t>
+          <t>00060__1500715863.pdf</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>00061__1500737602.pdf</t>
+          <t>00061__1500715864.pdf</t>
         </is>
       </c>
       <c r="B62" t="n">
+        <v>5</v>
+      </c>
+      <c r="C62" t="n">
         <v>3</v>
-      </c>
-      <c r="C62" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>00062__1500737605.pdf</t>
+          <t>00062__1500715866.pdf</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>00063__1500737606.pdf</t>
+          <t>00063__1500715867.pdf</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>00064__1500737607.pdf</t>
+          <t>00064__1500715868.pdf</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>00065__1500737614.pdf</t>
+          <t>00065__1500715870.pdf</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1417,247 +1417,2005 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>00066__1500738993.pdf</t>
+          <t>00066__1500715871.pdf</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>00067__1500742877.pdf</t>
+          <t>00067__1500715872.pdf</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>00068__1500742878.pdf</t>
+          <t>00068__1500715874.pdf</t>
         </is>
       </c>
       <c r="B69" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" t="n">
         <v>2</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>00069__1500742879.pdf</t>
+          <t>00069__1500715875.pdf</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>00070__1500715877.pdf</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>336</v>
+        <v>3</v>
       </c>
       <c r="C71" t="n">
-        <v>192</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>00071__1500715878.pdf</t>
+        </is>
+      </c>
+      <c r="B72" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C72" s="15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>00072__1500715879.pdf</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>6</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>00073__1500715880.pdf</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>7</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>00074__1500715987.pdf</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>3</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>00075__1500715988.pdf</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>00076__1500715989.pdf</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>00077__1500716021.pdf</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>3</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>00078__1500716022.pdf</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>00079__1500716023.pdf</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>3</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>00080__1500716024.pdf</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>3</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>00081__1500716028.pdf</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>3</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>00082__1500716029.pdf</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>8</v>
+      </c>
+      <c r="C83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>00083__1500716040.pdf</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>6</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>00084__1500716041.pdf</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>00085__1500716042.pdf</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>5</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>00086__1500716043.pdf</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>4</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>00087__1500716044.pdf</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>41</v>
+      </c>
+      <c r="C88" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>00088__1500716045.pdf</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>10</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>00089__1500716046.pdf</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>4</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>00090__1500716047.pdf</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>6</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>00091__1500716048.pdf</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>7</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>00092__1500716049.pdf</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>4</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>00093__1500716050.pdf</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>9</v>
+      </c>
+      <c r="C94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>00094__1500716051.pdf</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>4</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>00095__1500716052.pdf</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>8</v>
+      </c>
+      <c r="C96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>00096__1500716053.pdf</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>3</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>00097__1500716684.pdf</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>00098__1500716688.pdf</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>00099__1500716689.pdf</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>13</v>
+      </c>
+      <c r="C100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>00100__1500716701.pdf</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>00101__1500716702.pdf</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>4</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>00102__1500716703.pdf</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>8</v>
+      </c>
+      <c r="C103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>00103__1500716704.pdf</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>4</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>00104__1500716705.pdf</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>3</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>00105__1500716706.pdf</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>00106__1500716707.pdf</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>00107__1500716708.pdf</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>3</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>00108__1500716710.pdf</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>5</v>
+      </c>
+      <c r="C109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>00109__1500716803.pdf</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>6</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>00110__1500728925.pdf</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>4</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>00111__1500729038.pdf</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>5</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>00112__1500729039.pdf</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>5</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>00113__1500729060.pdf</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>00114__1500729064.pdf</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>00115__1500729065.pdf</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>00116__1500729096.pdf</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>5</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>00117__1500732082.pdf</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>3</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>00118__1500732083.pdf</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>7</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>00119__1500732084.pdf</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>9</v>
+      </c>
+      <c r="C120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>00120__1500732085.pdf</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>6</v>
+      </c>
+      <c r="C121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>00121__1500732086.pdf</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>3</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>00122__1500732088.pdf</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>3</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>00123__1500732089.pdf</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>8</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>00124__1500732100.pdf</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>14</v>
+      </c>
+      <c r="C125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>00125__1500732972.pdf</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>00126__1500734221.pdf</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>00127__1500734222.pdf</t>
+        </is>
+      </c>
+      <c r="B128" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C128" s="15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>00128__1500734223.pdf</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>4</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>00129__1500734225.pdf</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>12</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>00130__1500734250.pdf</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>00131__1500734251.pdf</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>3</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>00132__1500734252.pdf</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>3</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>00133__1500734253.pdf</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>00134__1500734254.pdf</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>10</v>
+      </c>
+      <c r="C135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>00135__1500734255.pdf</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>4</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>00136__1500734256.pdf</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>4</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>00137__1500734257.pdf</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>00138__1500734258.pdf</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>00139__1500734259.pdf</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>00140__1500734260.pdf</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>8</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>00141__1500734263.pdf</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>10</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>00142__1500734264.pdf</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>9</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>00143__1500734265.pdf</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>13</v>
+      </c>
+      <c r="C144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>00144__1500734267.pdf</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>4</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>00145__1500734268.pdf</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>6</v>
+      </c>
+      <c r="C146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>00146__1500734270.pdf</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>3</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>00147__1500734272.pdf</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>3</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>00148__1500734273.pdf</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>3</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>00149__1500734274.pdf</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>13</v>
+      </c>
+      <c r="C150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>00150__1500735271.pdf</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>3</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>00151__1500735290.pdf</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>4</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>00152__1500736464.pdf</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>00153__1500736467.pdf</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>5</v>
+      </c>
+      <c r="C154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>00154__1500736498.pdf</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>4</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>00155__1500737499.pdf</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>5</v>
+      </c>
+      <c r="C156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>00156__1500737502.pdf</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>4</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>00157__1500737503.pdf</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>5</v>
+      </c>
+      <c r="C158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>00158__1500737504.pdf</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>4</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>00159__1500737505.pdf</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>4</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>00160__1500737506.pdf</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>4</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>00161__1500737507.pdf</t>
+        </is>
+      </c>
+      <c r="B162" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C162" s="15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>00162__1500737508.pdf</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>5</v>
+      </c>
+      <c r="C163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>00163__1500737518.pdf</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>5</v>
+      </c>
+      <c r="C164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>00164__1500737519.pdf</t>
+        </is>
+      </c>
+      <c r="B165" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C165" s="15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>00165__1500737520.pdf</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>5</v>
+      </c>
+      <c r="C166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>00166__1500737521.pdf</t>
+        </is>
+      </c>
+      <c r="B167" s="8" t="n">
+        <v>36</v>
+      </c>
+      <c r="C167" s="8" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>00167__1500737522.pdf</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>4</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>00168__1500737532.pdf</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>5</v>
+      </c>
+      <c r="C169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>00169__1500737534.pdf</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>4</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>00170__1500737535.pdf</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>4</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>00171__1500737537.pdf</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>4</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>00172__1500737585.pdf</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>3</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>00173__1500737586.pdf</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>3</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>00174__1500737588.pdf</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>3</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>00175__1500737589.pdf</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>00176__1500737594.pdf</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>7</v>
+      </c>
+      <c r="C177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>00177__1500737598.pdf</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>21</v>
+      </c>
+      <c r="C178" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>00178__1500737599.pdf</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>19</v>
+      </c>
+      <c r="C179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>00179__1500737608.pdf</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>3</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>00180__1500737609.pdf</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>3</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>00181__1500737610.pdf</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>3</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>00182__1500737611.pdf</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>3</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>00183__1500737620.pdf</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>19</v>
+      </c>
+      <c r="C184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>00184__1500737621.pdf</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>21</v>
+      </c>
+      <c r="C185" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>00185__1500737633.pdf</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>4</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>00186__1500737650.pdf</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>3</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>00187__1500737651.pdf</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>3</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>00188__1500737652.pdf</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>3</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>00189__1500738454.pdf</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>3</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>00190__1500738455.pdf</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>3</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>00191__1500738482.pdf</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>7</v>
+      </c>
+      <c r="C192" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>00192__1500738483.pdf</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>7</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>00193__1500739030.pdf</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>6</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>00194__1500739031.pdf</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>5</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>00195__1500742842.pdf</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>11</v>
+      </c>
+      <c r="C196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>00196__1500742843.pdf</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>5</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>00197__1500742844.pdf</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>5</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>00198__1500742845.pdf</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>5</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>00199__1500742846.pdf</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>5</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>00200__1500743986.pdf</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>8</v>
+      </c>
+      <c r="C201" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>00201__1500743987.pdf</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>8</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>00202__1500743988.pdf</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>8</v>
+      </c>
+      <c r="C203" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>00203__1500743989.pdf</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>8</v>
+      </c>
+      <c r="C204" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>00204__1500744000.pdf</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>00205__1500744001.pdf</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>00206__1500744002.pdf</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>2</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>00207__1500744003.pdf</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>00208__1500744004.pdf</t>
+        </is>
+      </c>
+      <c r="B209" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C209" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>00209__1500744005.pdf</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>00210__1500744006.pdf</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>2</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>00211__1500744017.pdf</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>00212__1500744034.pdf</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>00213__1500744040.pdf</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>8</v>
+      </c>
+      <c r="C214" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>00214__1500744041.pdf</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>8</v>
+      </c>
+      <c r="C215" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>00215__1500744042.pdf</t>
+        </is>
+      </c>
+      <c r="B216" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C216" s="8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>00216__1500744043.pdf</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>8</v>
+      </c>
+      <c r="C217" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>00217__2024EE227315O1.pdf</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>16</v>
+      </c>
+      <c r="C218" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1414</v>
+      </c>
+      <c r="C219" t="n">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
           <t>TOTAL FINALES CLICKS/HOJAS</t>
         </is>
       </c>
-      <c r="B72" s="15" t="n">
-        <v>672</v>
-      </c>
-      <c r="C72" s="15" t="n">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128">
-      <c r="B128" s="15" t="n"/>
-      <c r="C128" s="15" t="n"/>
-    </row>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162">
-      <c r="B162" s="15" t="n"/>
-      <c r="C162" s="15" t="n"/>
-    </row>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165">
-      <c r="B165" s="15" t="n"/>
-      <c r="C165" s="15" t="n"/>
-    </row>
-    <row r="166"/>
-    <row r="167">
-      <c r="B167" s="8" t="n"/>
-      <c r="C167" s="8" t="n"/>
-    </row>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
-    <row r="200"/>
-    <row r="201"/>
-    <row r="202"/>
-    <row r="203"/>
-    <row r="204"/>
-    <row r="205"/>
-    <row r="206"/>
-    <row r="207"/>
-    <row r="208"/>
-    <row r="209">
-      <c r="B209" s="15" t="n"/>
-      <c r="C209" s="15" t="n"/>
-    </row>
-    <row r="210"/>
-    <row r="211"/>
-    <row r="212"/>
-    <row r="213"/>
-    <row r="214"/>
-    <row r="215"/>
-    <row r="216">
-      <c r="B216" s="8" t="n"/>
-      <c r="C216" s="8" t="n"/>
-    </row>
-    <row r="217"/>
-    <row r="218"/>
-    <row r="219"/>
-    <row r="220"/>
+      <c r="B220" s="15" t="n">
+        <v>2828</v>
+      </c>
+      <c r="C220" s="15" t="n">
+        <v>1558</v>
+      </c>
+    </row>
     <row r="221"/>
     <row r="222"/>
     <row r="223"/>

--- a/NUM_PAG.xlsx
+++ b/NUM_PAG.xlsx
@@ -572,488 +572,488 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>00001__1500632758.pdf</t>
+          <t>00001__1500679848-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>00002__1500632915.pdf</t>
+          <t>00002__1500679883-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B3" s="15" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>00003__1500632948.pdf</t>
+          <t>00003__1500683173-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>00004__1500632974.pdf</t>
+          <t>00004__1500687469-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>00005__1500633018.pdf</t>
+          <t>00005__1500688699-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>00006__1500633056.pdf</t>
+          <t>00006__1500688703-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>00007__1500633070.pdf</t>
+          <t>00007__1500688706-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>00008__1500633126.pdf</t>
+          <t>00008__1500688708-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>00009__1500633135.pdf</t>
+          <t>00009__1500688709-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>00010__1500633151.pdf</t>
+          <t>00010__1500688710-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>00011__1500633309.pdf</t>
+          <t>00011__1500688711-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>00012__1500633468.pdf</t>
+          <t>00012__1500688712-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>00013__1500633487.pdf</t>
+          <t>00013__1500688713-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>00014__1500633488.pdf</t>
+          <t>00014__1500688715-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>00015__1500633517.pdf</t>
+          <t>00015__1500688716-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>00016__1500633518.pdf</t>
+          <t>00016__1500688717-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>00017__1500633524.pdf</t>
+          <t>00017__1500688728-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>00018__1500633526.pdf</t>
+          <t>00018__1500688791-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>00019__1500633534.pdf</t>
+          <t>00019__1500688792-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>00020__1500633573.pdf</t>
+          <t>00020__1500688794-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>00021__1500633580.pdf</t>
+          <t>00021__1500688795-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>00022__1500633594.pdf</t>
+          <t>00022__1500706054-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>00023__1500633608.pdf</t>
+          <t>00023__1500706059-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>00024__1500633620.pdf</t>
+          <t>00024__1500706060-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>00025__1500633636.pdf</t>
+          <t>00025__1500706061-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>00026__1500633646.pdf</t>
+          <t>00026__1500706062-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>00027__1500633652.pdf</t>
+          <t>00027__1500706064-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>00028__1500633655.pdf</t>
+          <t>00028__1500706065-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>00029__1500633722.pdf</t>
+          <t>00029__1500706066-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>00030__1500633735.pdf</t>
+          <t>00030__1500706067-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>00031__1500633744.pdf</t>
+          <t>00031__1500706068-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>00032__1500633748.pdf</t>
+          <t>00032__1500706069-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>00033__1500633765.pdf</t>
+          <t>00033__1500706076-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>00034__1500633833.pdf</t>
+          <t>00034__1500706077-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>00035__1500682630.pdf</t>
+          <t>00035__1500706080-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="n">
         <v>2</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>00036__1500704983.pdf</t>
+          <t>00036__1500706082-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>00037__1500705303.pdf</t>
+          <t>00037__1500706083-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>00038__1500705304.pdf</t>
+          <t>00038__1500706084-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1066,20 +1066,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>00039__1500705366.pdf</t>
+          <t>00039__1500706085-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>00040__1500705375.pdf</t>
+          <t>00040__1500706086-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1092,7 +1092,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>00041__1500705376.pdf</t>
+          <t>00041__1500706087-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1105,7 +1105,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>00042__1500705378.pdf</t>
+          <t>00042__1500706088-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
@@ -1118,20 +1118,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>00043__1500705379.pdf</t>
+          <t>00043__1500706090-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B44" s="8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C44" s="8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>00044__1500705754.pdf</t>
+          <t>00044__1500706092-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1144,7 +1144,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>00045__1500705794.pdf</t>
+          <t>00045__1500706094-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1157,7 +1157,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>00046__1500706000.pdf</t>
+          <t>00046__1500706095-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1170,7 +1170,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>00047__1500706037.pdf</t>
+          <t>00047__1500706096-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1183,7 +1183,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>00048__1500706040.pdf</t>
+          <t>00048__1500706097-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1196,7 +1196,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>00049__1500706041.pdf</t>
+          <t>00049__1500706101-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1209,7 +1209,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>00050__1500706042.pdf</t>
+          <t>00050__1500706102-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1222,7 +1222,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>00051__1500706043.pdf</t>
+          <t>00051__1500706104-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1235,7 +1235,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>00052__1500706044.pdf</t>
+          <t>00052__1500706105-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1248,7 +1248,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>00053__1500706047.pdf</t>
+          <t>00053__1500706106-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1261,7 +1261,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>00054__1500706048.pdf</t>
+          <t>00054__1500706107-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1274,7 +1274,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>00055__1500706050.pdf</t>
+          <t>00055__1500706108-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1287,7 +1287,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>00056__1500706051.pdf</t>
+          <t>00056__1500706109-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1300,7 +1300,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>00057__1500706052.pdf</t>
+          <t>00057__1500706110-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1313,7 +1313,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>00058__1500706053.pdf</t>
+          <t>00058__1500706112-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1326,63 +1326,63 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>00059__1500710170.pdf</t>
+          <t>00059__1500706113-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>00060__1500715863.pdf</t>
+          <t>00060__1500706114-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>00061__1500715864.pdf</t>
+          <t>00061__1500706115-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>00062__1500715866.pdf</t>
+          <t>00062__1500706116-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>00063__1500715867.pdf</t>
+          <t>00063__1500706117-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
@@ -1391,11 +1391,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>00064__1500715868.pdf</t>
+          <t>00064__1500706119-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
@@ -1404,7 +1404,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>00065__1500715870.pdf</t>
+          <t>00065__1500706120-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1417,7 +1417,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>00066__1500715871.pdf</t>
+          <t>00066__1500706121-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1430,20 +1430,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>00067__1500715872.pdf</t>
+          <t>00067__1500706122-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>00068__1500715874.pdf</t>
+          <t>00068__1500706125-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1456,20 +1456,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>00069__1500715875.pdf</t>
+          <t>00069__1500706128-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>00070__1500715877.pdf</t>
+          <t>00070__1500706129-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1482,85 +1482,85 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>00071__1500715878.pdf</t>
+          <t>00071__1500706130-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B72" s="15" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C72" s="15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>00072__1500715879.pdf</t>
+          <t>00072__1500706132-ZMC001.pdf</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>00073__1500715880.pdf</t>
+          <t>00073__1500707487-ZC6085.pdf</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>00074__1500715987.pdf</t>
+          <t>00074__1500707620-ZC9006.pdf</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>00075__1500715988.pdf</t>
+          <t>00075__1500716080-ZC1201.pdf</t>
         </is>
       </c>
       <c r="B76" t="n">
+        <v>5</v>
+      </c>
+      <c r="C76" t="n">
         <v>3</v>
-      </c>
-      <c r="C76" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>00076__1500715989.pdf</t>
+          <t>00076__1500716081-ZC1201.pdf</t>
         </is>
       </c>
       <c r="B77" t="n">
+        <v>5</v>
+      </c>
+      <c r="C77" t="n">
         <v>3</v>
-      </c>
-      <c r="C77" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>00077__1500716021.pdf</t>
+          <t>00077__1500731982-ZL1001.pdf</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1573,111 +1573,111 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>00078__1500716022.pdf</t>
+          <t>00078__1500732977-ZC1201.pdf</t>
         </is>
       </c>
       <c r="B79" t="n">
+        <v>5</v>
+      </c>
+      <c r="C79" t="n">
         <v>3</v>
-      </c>
-      <c r="C79" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>00079__1500716023.pdf</t>
+          <t>00079__1500732978-ZC1201.pdf</t>
         </is>
       </c>
       <c r="B80" t="n">
+        <v>5</v>
+      </c>
+      <c r="C80" t="n">
         <v>3</v>
-      </c>
-      <c r="C80" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>00080__1500716024.pdf</t>
+          <t>00080__1500732979-ZC1201.pdf</t>
         </is>
       </c>
       <c r="B81" t="n">
+        <v>5</v>
+      </c>
+      <c r="C81" t="n">
         <v>3</v>
-      </c>
-      <c r="C81" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>00081__1500716028.pdf</t>
+          <t>00081__1500737498-ZD1002.pdf</t>
         </is>
       </c>
       <c r="B82" t="n">
+        <v>5</v>
+      </c>
+      <c r="C82" t="n">
         <v>3</v>
-      </c>
-      <c r="C82" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>00082__1500716029.pdf</t>
+          <t>00082__1500737533-ZD1002.pdf</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>00083__1500716040.pdf</t>
+          <t>00083__1500737538-ZD1002.pdf</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>00084__1500716041.pdf</t>
+          <t>00084__1500737624-ZD1003.pdf</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>00085__1500716042.pdf</t>
+          <t>00085__1500737627-ZD1003.pdf</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>00086__1500716043.pdf</t>
+          <t>00086__1500737640-ZD1003.pdf</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1690,33 +1690,33 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>00087__1500716044.pdf</t>
+          <t>00087__1500737641-ZD1003.pdf</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C88" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>00088__1500716045.pdf</t>
+          <t>00088__1500737643-ZD1003.pdf</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>00089__1500716046.pdf</t>
+          <t>00089__1500737644-ZD1003.pdf</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1729,33 +1729,33 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>00090__1500716047.pdf</t>
+          <t>00090__1500737646-ZD1003.pdf</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>00091__1500716048.pdf</t>
+          <t>00091__1500737648-ZD1003.pdf</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>00092__1500716049.pdf</t>
+          <t>00092__1500737661-ZD1003.pdf</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1768,24 +1768,24 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>00093__1500716050.pdf</t>
+          <t>00093__1500737667-ZD1003.pdf</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>00094__1500716051.pdf</t>
+          <t>00094__1500742887-ZS3004.pdf</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
         <v>2</v>
@@ -1794,20 +1794,20 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>00095__1500716052.pdf</t>
+          <t>00095__1500742888-ZS3004.pdf</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>00096__1500716053.pdf</t>
+          <t>00096__1500742889-ZS3006.pdf</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1820,1601 +1820,314 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>00097__1500716684.pdf</t>
+          <t>00097__1500742960-ZS3006.pdf</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>00098__1500716688.pdf</t>
+          <t>00098__1500742963-ZL1014.pdf</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>00099__1500716689.pdf</t>
+          <t>00099__1500745888-ZN1M02.pdf</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>00100__1500716701.pdf</t>
+          <t>00100__1500745889-ZL1014.pdf</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>00101__1500716702.pdf</t>
+          <t>00101__1500745914-ZN1M02.pdf</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>00102__1500716703.pdf</t>
+          <t>00102__1500745921-ZL1014.pdf</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C103" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>00103__1500716704.pdf</t>
+          <t>00103__1500747005-ZN1M02.signed.pdf</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>00104__1500716705.pdf</t>
+          <t>00104__1500747053-ZN1M02.signed.pdf</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>00105__1500716706.pdf</t>
+          <t>00105__1500747054-ZN1M02.signed.pdf</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>00106__1500716707.pdf</t>
+          <t>00106__1500747055-ZN1M02.signed.pdf</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>00107__1500716708.pdf</t>
+          <t>00107__1500747056-ZN1M02.signed.pdf</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>00108__1500716710.pdf</t>
+          <t>00108__1500747057-ZN1M02.signed.pdf</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>00109__1500716803.pdf</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>6</v>
+        <v>382</v>
       </c>
       <c r="C110" t="n">
-        <v>3</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>00110__1500728925.pdf</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>4</v>
-      </c>
-      <c r="C111" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>00111__1500729038.pdf</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>5</v>
-      </c>
-      <c r="C112" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>00112__1500729039.pdf</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>5</v>
-      </c>
-      <c r="C113" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>00113__1500729060.pdf</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>5</v>
-      </c>
-      <c r="C114" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>00114__1500729064.pdf</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>5</v>
-      </c>
-      <c r="C115" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>00115__1500729065.pdf</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>5</v>
-      </c>
-      <c r="C116" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>00116__1500729096.pdf</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>5</v>
-      </c>
-      <c r="C117" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>00117__1500732082.pdf</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>3</v>
-      </c>
-      <c r="C118" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>00118__1500732083.pdf</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>7</v>
-      </c>
-      <c r="C119" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>00119__1500732084.pdf</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>9</v>
-      </c>
-      <c r="C120" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>00120__1500732085.pdf</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>6</v>
-      </c>
-      <c r="C121" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>00121__1500732086.pdf</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>3</v>
-      </c>
-      <c r="C122" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>00122__1500732088.pdf</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>3</v>
-      </c>
-      <c r="C123" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>00123__1500732089.pdf</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>8</v>
-      </c>
-      <c r="C124" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>00124__1500732100.pdf</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>14</v>
-      </c>
-      <c r="C125" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>00125__1500732972.pdf</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>5</v>
-      </c>
-      <c r="C126" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>00126__1500734221.pdf</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>5</v>
-      </c>
-      <c r="C127" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>00127__1500734222.pdf</t>
-        </is>
-      </c>
-      <c r="B128" s="15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C128" s="15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>00128__1500734223.pdf</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>4</v>
-      </c>
-      <c r="C129" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>00129__1500734225.pdf</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>12</v>
-      </c>
-      <c r="C130" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>00130__1500734250.pdf</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>4</v>
-      </c>
-      <c r="C131" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>00131__1500734251.pdf</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>3</v>
-      </c>
-      <c r="C132" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>00132__1500734252.pdf</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>3</v>
-      </c>
-      <c r="C133" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>00133__1500734253.pdf</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>5</v>
-      </c>
-      <c r="C134" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>00134__1500734254.pdf</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>10</v>
-      </c>
-      <c r="C135" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>00135__1500734255.pdf</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>4</v>
-      </c>
-      <c r="C136" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>00136__1500734256.pdf</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>4</v>
-      </c>
-      <c r="C137" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>00137__1500734257.pdf</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>3</v>
-      </c>
-      <c r="C138" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>00138__1500734258.pdf</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>3</v>
-      </c>
-      <c r="C139" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>00139__1500734259.pdf</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>8</v>
-      </c>
-      <c r="C140" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>00140__1500734260.pdf</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>8</v>
-      </c>
-      <c r="C141" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>00141__1500734263.pdf</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>10</v>
-      </c>
-      <c r="C142" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>00142__1500734264.pdf</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>9</v>
-      </c>
-      <c r="C143" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>00143__1500734265.pdf</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>13</v>
-      </c>
-      <c r="C144" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>00144__1500734267.pdf</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>4</v>
-      </c>
-      <c r="C145" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>00145__1500734268.pdf</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>6</v>
-      </c>
-      <c r="C146" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>00146__1500734270.pdf</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>3</v>
-      </c>
-      <c r="C147" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>00147__1500734272.pdf</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>3</v>
-      </c>
-      <c r="C148" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>00148__1500734273.pdf</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>3</v>
-      </c>
-      <c r="C149" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>00149__1500734274.pdf</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>13</v>
-      </c>
-      <c r="C150" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>00150__1500735271.pdf</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>3</v>
-      </c>
-      <c r="C151" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>00151__1500735290.pdf</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>4</v>
-      </c>
-      <c r="C152" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>00152__1500736464.pdf</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>4</v>
-      </c>
-      <c r="C153" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>00153__1500736467.pdf</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>5</v>
-      </c>
-      <c r="C154" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>00154__1500736498.pdf</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>4</v>
-      </c>
-      <c r="C155" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>00155__1500737499.pdf</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>5</v>
-      </c>
-      <c r="C156" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>00156__1500737502.pdf</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>4</v>
-      </c>
-      <c r="C157" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>00157__1500737503.pdf</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>5</v>
-      </c>
-      <c r="C158" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>00158__1500737504.pdf</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>4</v>
-      </c>
-      <c r="C159" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>00159__1500737505.pdf</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>4</v>
-      </c>
-      <c r="C160" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>00160__1500737506.pdf</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>4</v>
-      </c>
-      <c r="C161" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>00161__1500737507.pdf</t>
-        </is>
-      </c>
-      <c r="B162" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C162" s="15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>00162__1500737508.pdf</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>5</v>
-      </c>
-      <c r="C163" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>00163__1500737518.pdf</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>5</v>
-      </c>
-      <c r="C164" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>00164__1500737519.pdf</t>
-        </is>
-      </c>
-      <c r="B165" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C165" s="15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>00165__1500737520.pdf</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>5</v>
-      </c>
-      <c r="C166" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>00166__1500737521.pdf</t>
-        </is>
-      </c>
-      <c r="B167" s="8" t="n">
-        <v>36</v>
-      </c>
-      <c r="C167" s="8" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>00167__1500737522.pdf</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>4</v>
-      </c>
-      <c r="C168" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>00168__1500737532.pdf</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>5</v>
-      </c>
-      <c r="C169" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>00169__1500737534.pdf</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>4</v>
-      </c>
-      <c r="C170" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>00170__1500737535.pdf</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>4</v>
-      </c>
-      <c r="C171" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>00171__1500737537.pdf</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>4</v>
-      </c>
-      <c r="C172" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>00172__1500737585.pdf</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>3</v>
-      </c>
-      <c r="C173" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>00173__1500737586.pdf</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>3</v>
-      </c>
-      <c r="C174" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>00174__1500737588.pdf</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>3</v>
-      </c>
-      <c r="C175" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>00175__1500737589.pdf</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>3</v>
-      </c>
-      <c r="C176" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>00176__1500737594.pdf</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>7</v>
-      </c>
-      <c r="C177" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>00177__1500737598.pdf</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>21</v>
-      </c>
-      <c r="C178" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>00178__1500737599.pdf</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>19</v>
-      </c>
-      <c r="C179" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>00179__1500737608.pdf</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>3</v>
-      </c>
-      <c r="C180" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>00180__1500737609.pdf</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>3</v>
-      </c>
-      <c r="C181" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>00181__1500737610.pdf</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>3</v>
-      </c>
-      <c r="C182" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>00182__1500737611.pdf</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>3</v>
-      </c>
-      <c r="C183" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>00183__1500737620.pdf</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>19</v>
-      </c>
-      <c r="C184" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>00184__1500737621.pdf</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>21</v>
-      </c>
-      <c r="C185" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>00185__1500737633.pdf</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>4</v>
-      </c>
-      <c r="C186" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>00186__1500737650.pdf</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>3</v>
-      </c>
-      <c r="C187" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>00187__1500737651.pdf</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>3</v>
-      </c>
-      <c r="C188" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>00188__1500737652.pdf</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>3</v>
-      </c>
-      <c r="C189" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>00189__1500738454.pdf</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>3</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>00190__1500738455.pdf</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>3</v>
-      </c>
-      <c r="C191" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>00191__1500738482.pdf</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>7</v>
-      </c>
-      <c r="C192" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>00192__1500738483.pdf</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>7</v>
-      </c>
-      <c r="C193" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>00193__1500739030.pdf</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>6</v>
-      </c>
-      <c r="C194" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>00194__1500739031.pdf</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>5</v>
-      </c>
-      <c r="C195" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>00195__1500742842.pdf</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>11</v>
-      </c>
-      <c r="C196" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>00196__1500742843.pdf</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>5</v>
-      </c>
-      <c r="C197" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>00197__1500742844.pdf</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>5</v>
-      </c>
-      <c r="C198" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>00198__1500742845.pdf</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>5</v>
-      </c>
-      <c r="C199" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>00199__1500742846.pdf</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>5</v>
-      </c>
-      <c r="C200" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>00200__1500743986.pdf</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>8</v>
-      </c>
-      <c r="C201" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>00201__1500743987.pdf</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>8</v>
-      </c>
-      <c r="C202" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>00202__1500743988.pdf</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>8</v>
-      </c>
-      <c r="C203" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>00203__1500743989.pdf</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>8</v>
-      </c>
-      <c r="C204" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>00204__1500744000.pdf</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>2</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>00205__1500744001.pdf</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>2</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>00206__1500744002.pdf</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>2</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>00207__1500744003.pdf</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>2</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>00208__1500744004.pdf</t>
-        </is>
-      </c>
-      <c r="B209" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C209" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>00209__1500744005.pdf</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>2</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>00210__1500744006.pdf</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>2</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>00211__1500744017.pdf</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>2</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>00212__1500744034.pdf</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>2</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>00213__1500744040.pdf</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>8</v>
-      </c>
-      <c r="C214" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>00214__1500744041.pdf</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>8</v>
-      </c>
-      <c r="C215" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>00215__1500744042.pdf</t>
-        </is>
-      </c>
-      <c r="B216" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C216" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>00216__1500744043.pdf</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>8</v>
-      </c>
-      <c r="C217" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>00217__2024EE227315O1.pdf</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>16</v>
-      </c>
-      <c r="C218" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>1414</v>
-      </c>
-      <c r="C219" t="n">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
           <t>TOTAL FINALES CLICKS/HOJAS</t>
         </is>
       </c>
-      <c r="B220" s="15" t="n">
-        <v>2828</v>
-      </c>
-      <c r="C220" s="15" t="n">
-        <v>1558</v>
-      </c>
+      <c r="B111" s="15" t="n">
+        <v>764</v>
+      </c>
+      <c r="C111" s="15" t="n">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128">
+      <c r="B128" s="15" t="n"/>
+      <c r="C128" s="15" t="n"/>
+    </row>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162">
+      <c r="B162" s="15" t="n"/>
+      <c r="C162" s="15" t="n"/>
+    </row>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165">
+      <c r="B165" s="15" t="n"/>
+      <c r="C165" s="15" t="n"/>
+    </row>
+    <row r="166"/>
+    <row r="167">
+      <c r="B167" s="8" t="n"/>
+      <c r="C167" s="8" t="n"/>
+    </row>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209">
+      <c r="B209" s="15" t="n"/>
+      <c r="C209" s="15" t="n"/>
+    </row>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216">
+      <c r="B216" s="8" t="n"/>
+      <c r="C216" s="8" t="n"/>
+    </row>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220">
+      <c r="B220" s="15" t="n"/>
+      <c r="C220" s="15" t="n"/>
     </row>
     <row r="221"/>
     <row r="222"/>
@@ -4167,7 +2880,10 @@
     <row r="924"/>
     <row r="925"/>
     <row r="926"/>
-    <row r="927"/>
+    <row r="927">
+      <c r="B927" s="15" t="n"/>
+      <c r="C927" s="15" t="n"/>
+    </row>
     <row r="928"/>
     <row r="929"/>
     <row r="930"/>

--- a/NUM_PAG.xlsx
+++ b/NUM_PAG.xlsx
@@ -604,63 +604,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>00001__1500721536-ZD1002.pdf</t>
+          <t>00001__1500766977-ZS3004.pdf</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>00002__1500737497-ZD1002.pdf</t>
+          <t>00002__1500766978-ZS3004.pdf</t>
         </is>
       </c>
       <c r="B3" s="15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>00003__1500737531-ZD1002.pdf</t>
+          <t>00003__1500767225-ZL1014.pdf</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>00004__1500737536-ZD1002.pdf</t>
+          <t>00004__1500767227-ZL1014.pdf</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>00005__1500737647-ZD1003.pdf</t>
+          <t>00005__1500767251-ZS3006.pdf</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -669,11 +669,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>00006__1500737663-ZD1003.pdf</t>
+          <t>00006__1500767252-ZS3006.pdf</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -682,11 +682,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>00007__1500738472-ZD1002.pdf</t>
+          <t>00007__1500767253-ZS3004.pdf</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -695,11 +695,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>00008__1500742987-ZD1003.pdf</t>
+          <t>00008__1500767254-ZS3004.pdf</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -708,11 +708,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>00009__1500745913-ZD1003.pdf</t>
+          <t>00009__1500767255-ZS3004.pdf</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -721,11 +721,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>00010__1500748159-ZD1003.pdf</t>
+          <t>00010__1500767256-ZS3004.pdf</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -734,11 +734,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>00011__1500748969-ZD1002.pdf</t>
+          <t>00011__1500767257-ZS3004.pdf</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -747,11 +747,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>00012__1500749007-ZD1002.pdf</t>
+          <t>00012__1500767258-ZS3004.pdf</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -760,11 +760,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>00013__1500749024-ZD1002.pdf</t>
+          <t>00013__1500767259-ZS3004.pdf</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -773,11 +773,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>00014__1500749025-ZD1002.pdf</t>
+          <t>00014__1500767260-ZS3004.pdf</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -786,11 +786,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>00015__1500749063-ZD1002.pdf</t>
+          <t>00015__1500767261-ZS3007.pdf</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -799,24 +799,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>00016__1500749143-ZL1014.pdf</t>
+          <t>00016__1500767265-ZL1014.pdf</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>00017__1500749496-ZD1002.pdf</t>
+          <t>00017__1500767270-ZS3004.pdf</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -825,11 +825,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>00018__1500749798-ZD1002.pdf</t>
+          <t>00018__1500767271-ZS3004.pdf</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -838,11 +838,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>00019__1500749830-ZD1002.pdf</t>
+          <t>00019__1500767273-ZS3004.pdf</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -851,11 +851,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>00020__1500749831-ZD1002.pdf</t>
+          <t>00020__1500767274-ZS3004.pdf</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -864,11 +864,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>00021__1500749833-ZD1002.pdf</t>
+          <t>00021__1500768411-ZS3007.pdf</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -877,821 +877,296 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>00022__1500749836-ZD1002.pdf</t>
+          <t>00022__1500770355-ZS3006.pdf</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>00023__1500752149-ZL1011.pdf</t>
+          <t>00023__1500770356-ZS3006.pdf</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>00024__1500752167-ZL1011.pdf</t>
+          <t>00024__1500770357-ZS3006.pdf</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>00025__1500752168-ZS3004.pdf</t>
+          <t>00025__1500770601-ZD1002.pdf</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>00026__1500752169-ZS3004.pdf</t>
+          <t>00026__1500770612-ZN1M02.pdf</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>00027__1500752171-ZL1014.pdf</t>
+          <t>00027__1500772895-ZD1002.pdf</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>00028__1500752180-ZS3004.pdf</t>
+          <t>00028__1500773266-ZS3011.pdf</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>00029__1500752181-ZS3004.pdf</t>
+          <t>00029__1500773267-ZL1014.pdf</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>00030__1500752183-ZS3004.pdf</t>
+          <t>00030__1500773268-ZL1014.pdf</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>00031__1500752184-ZS3004.pdf</t>
+          <t>00031__1500773290-ZL1014.pdf</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>00032__1500752186-ZS3004.pdf</t>
+          <t>00032__1500773300-ZN1M02.pdf</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>00033__1500752187-ZS3004.pdf</t>
+          <t>00033__1500773301-ZN1M02.pdf</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>00034__1500752188-ZS3006.pdf</t>
+          <t>00034__1500773303-ZN1M02.pdf</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>00035__1500752189-ZS3006.pdf</t>
+          <t>00035__1500773311-ZN1M02.pdf</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>3</v>
+      <c r="B36" s="19" t="n">
+        <v>2</v>
       </c>
-      <c r="C36" t="n">
-        <v>2</v>
+      <c r="C36" s="19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>00036__1500752190-ZS3006.pdf</t>
+          <t>00036__1500773338-ZN1M02.pdf</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>00037__1500752191-ZS3006.pdf</t>
+          <t>00037__1500773351-ZN1M02.pdf</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>00038__1500752192-ZS3006.pdf</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>00039__1500752204-ZN1M01.pdf</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>2</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>00040__1500752205-ZN1M01.pdf</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>2</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>00041__1500752210-ZL1014.pdf</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>14</v>
-      </c>
-      <c r="C42" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>00042__1500752215-ZL1014.pdf</t>
-        </is>
-      </c>
-      <c r="B43" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="C43" s="6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>00043__1500752228-ZL1014.pdf</t>
-        </is>
-      </c>
-      <c r="B44" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="C44" s="8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>00044__1500752249-ZN1M01.pdf</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>2</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>00045__1500752250-ZN1M01.pdf</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>2</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>00046__1500752251-ZN1M01.pdf</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>2</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>00047__1500752252-ZN1M01.pdf</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>2</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>00048__1500752255-ZS3004.pdf</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>3</v>
-      </c>
-      <c r="C49" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>00049__1500752256-ZS3004.pdf</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>3</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>00050__1500752257-ZS3004.pdf</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>3</v>
-      </c>
-      <c r="C51" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>00051__1500752258-ZS3006.pdf</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>3</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>00052__1500752259-ZS3006.pdf</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>3</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>00053__1500752270-ZL1014.pdf</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>14</v>
-      </c>
-      <c r="C54" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>00054__1500752275-ZL1014.pdf</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>15</v>
-      </c>
-      <c r="C55" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>00055__1500752307-ZL1014.pdf</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>12</v>
-      </c>
-      <c r="C56" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>00056__1500752308-ZL1011.pdf</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>7</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>00057__1500752309-ZL1014.pdf</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>18</v>
-      </c>
-      <c r="C58" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>00058__1500752310-ZL1014.pdf</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>17</v>
-      </c>
-      <c r="C59" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>00059__1500752311-ZL1014.pdf</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>13</v>
-      </c>
-      <c r="C60" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>00060__1500753698-ZL1014.pdf</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>18</v>
-      </c>
-      <c r="C61" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>00061__1500753755-ZN1M02.pdf</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>2</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>00062__1500753762-ZN1M02.pdf</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>00063__1500753763-ZN1M02.pdf</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>00064__1500753777-ZN1M01.pdf</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>00065__1500753778-ZN1M01.pdf</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>2</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>00066__1500753779-ZN1M02.signed.pdf</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>2</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>00067__1500753781-ZN1M02.pdf</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>00068__1500753791-ZN1M01.pdf</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>00069__1500753792-ZN1M01.pdf</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>2</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>00070__1500753794-ZN1M01.pdf</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>2</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>00071__1500753795-ZN1M01.pdf</t>
-        </is>
-      </c>
-      <c r="B72" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C72" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>00072__1500753825-ZN1M02.signed.pdf</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>2</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>00073__1500753826-ZN1M02.signed.pdf</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>2</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>00074__1500753827-ZN1M02.signed.pdf</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>2</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>00075__1500753828-ZN1M02.signed.pdf</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>2</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>00076__1500753829-ZN1M02.signed.pdf</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>2</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>00077__1500753830-ZN1M02.signed.pdf</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>2</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>00078__1500753831-ZN1M02.signed.pdf</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>2</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>00079__1500753832-ZN1M02.signed.pdf</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>2</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>00080__1500753833-ZN1M02.signed.pdf</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>2</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>00081__1500753850-ZN1M02.signed.pdf</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>2</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>00082__1500753851-ZN1M02.signed.pdf</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>2</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>403</v>
-      </c>
-      <c r="C84" t="n">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
           <t>TOTAL FINALES CLICKS/HOJAS</t>
         </is>
       </c>
-      <c r="B85" s="19" t="n">
-        <v>806</v>
+      <c r="B40" s="19" t="n">
+        <v>354</v>
       </c>
-      <c r="C85" s="19" t="n">
-        <v>428</v>
+      <c r="C40" s="19" t="n">
+        <v>202</v>
       </c>
+    </row>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43">
+      <c r="B43" s="6" t="n"/>
+      <c r="C43" s="6" t="n"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="8" t="n"/>
+      <c r="C44" s="8" t="n"/>
+    </row>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51">
+      <c r="B51" s="19" t="n"/>
+      <c r="C51" s="19" t="n"/>
+    </row>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72">
+      <c r="B72" s="15" t="n"/>
+      <c r="C72" s="15" t="n"/>
+    </row>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85">
+      <c r="B85" s="19" t="n"/>
+      <c r="C85" s="19" t="n"/>
     </row>
     <row r="86"/>
     <row r="87"/>
@@ -1716,7 +1191,10 @@
     <row r="100"/>
     <row r="101"/>
     <row r="102"/>
-    <row r="103"/>
+    <row r="103">
+      <c r="B103" s="19" t="n"/>
+      <c r="C103" s="19" t="n"/>
+    </row>
     <row r="104"/>
     <row r="105"/>
     <row r="106"/>
@@ -1736,11 +1214,20 @@
     <row r="117"/>
     <row r="118"/>
     <row r="119"/>
-    <row r="120"/>
+    <row r="120">
+      <c r="B120" s="19" t="n"/>
+      <c r="C120" s="19" t="n"/>
+    </row>
     <row r="121"/>
     <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
+    <row r="123">
+      <c r="B123" s="19" t="n"/>
+      <c r="C123" s="19" t="n"/>
+    </row>
+    <row r="124">
+      <c r="B124" s="19" t="n"/>
+      <c r="C124" s="19" t="n"/>
+    </row>
     <row r="125"/>
     <row r="126"/>
     <row r="127"/>
@@ -1761,7 +1248,10 @@
     <row r="136"/>
     <row r="137"/>
     <row r="138"/>
-    <row r="139"/>
+    <row r="139">
+      <c r="B139" s="19" t="n"/>
+      <c r="C139" s="19" t="n"/>
+    </row>
     <row r="140"/>
     <row r="141"/>
     <row r="142"/>
@@ -1777,7 +1267,10 @@
     <row r="152"/>
     <row r="153"/>
     <row r="154"/>
-    <row r="155"/>
+    <row r="155">
+      <c r="B155" s="19" t="n"/>
+      <c r="C155" s="19" t="n"/>
+    </row>
     <row r="156"/>
     <row r="157"/>
     <row r="158"/>
@@ -1785,8 +1278,8 @@
     <row r="160"/>
     <row r="161"/>
     <row r="162">
-      <c r="B162" s="15" t="n"/>
-      <c r="C162" s="15" t="n"/>
+      <c r="B162" s="19" t="n"/>
+      <c r="C162" s="19" t="n"/>
     </row>
     <row r="163"/>
     <row r="164"/>
@@ -1807,7 +1300,10 @@
     <row r="173"/>
     <row r="174"/>
     <row r="175"/>
-    <row r="176"/>
+    <row r="176">
+      <c r="B176" s="19" t="n"/>
+      <c r="C176" s="19" t="n"/>
+    </row>
     <row r="177"/>
     <row r="178"/>
     <row r="179"/>
@@ -1824,7 +1320,10 @@
     <row r="190"/>
     <row r="191"/>
     <row r="192"/>
-    <row r="193"/>
+    <row r="193">
+      <c r="B193" s="19" t="n"/>
+      <c r="C193" s="19" t="n"/>
+    </row>
     <row r="194"/>
     <row r="195"/>
     <row r="196"/>
@@ -1867,7 +1366,10 @@
     <row r="221"/>
     <row r="222"/>
     <row r="223"/>
-    <row r="224"/>
+    <row r="224">
+      <c r="B224" s="19" t="n"/>
+      <c r="C224" s="19" t="n"/>
+    </row>
     <row r="225"/>
     <row r="226"/>
     <row r="227"/>
@@ -1897,7 +1399,10 @@
     <row r="248"/>
     <row r="249"/>
     <row r="250"/>
-    <row r="251"/>
+    <row r="251">
+      <c r="B251" s="19" t="n"/>
+      <c r="C251" s="19" t="n"/>
+    </row>
     <row r="252"/>
     <row r="253"/>
     <row r="254"/>
@@ -1977,7 +1482,10 @@
     <row r="316"/>
     <row r="317"/>
     <row r="318"/>
-    <row r="319"/>
+    <row r="319">
+      <c r="B319" s="19" t="n"/>
+      <c r="C319" s="19" t="n"/>
+    </row>
     <row r="320"/>
     <row r="321"/>
     <row r="322"/>
@@ -2046,7 +1554,10 @@
     <row r="379"/>
     <row r="380"/>
     <row r="381"/>
-    <row r="382"/>
+    <row r="382">
+      <c r="B382" s="19" t="n"/>
+      <c r="C382" s="19" t="n"/>
+    </row>
     <row r="383"/>
     <row r="384"/>
     <row r="385"/>
@@ -2061,7 +1572,10 @@
     <row r="394"/>
     <row r="395"/>
     <row r="396"/>
-    <row r="397"/>
+    <row r="397">
+      <c r="B397" s="19" t="n"/>
+      <c r="C397" s="19" t="n"/>
+    </row>
     <row r="398"/>
     <row r="399"/>
     <row r="400"/>
@@ -2100,11 +1614,17 @@
       <c r="B432" s="15" t="n"/>
       <c r="C432" s="15" t="n"/>
     </row>
-    <row r="433"/>
+    <row r="433">
+      <c r="B433" s="19" t="n"/>
+      <c r="C433" s="19" t="n"/>
+    </row>
     <row r="434"/>
     <row r="435"/>
     <row r="436"/>
-    <row r="437"/>
+    <row r="437">
+      <c r="B437" s="19" t="n"/>
+      <c r="C437" s="19" t="n"/>
+    </row>
     <row r="438"/>
     <row r="439"/>
     <row r="440"/>
@@ -2141,7 +1661,10 @@
     <row r="465"/>
     <row r="466"/>
     <row r="467"/>
-    <row r="468"/>
+    <row r="468">
+      <c r="B468" s="19" t="n"/>
+      <c r="C468" s="19" t="n"/>
+    </row>
     <row r="469"/>
     <row r="470"/>
     <row r="471"/>
@@ -2197,7 +1720,10 @@
     <row r="512"/>
     <row r="513"/>
     <row r="514"/>
-    <row r="515"/>
+    <row r="515">
+      <c r="B515" s="19" t="n"/>
+      <c r="C515" s="19" t="n"/>
+    </row>
     <row r="516"/>
     <row r="517"/>
     <row r="518"/>
@@ -2368,7 +1894,10 @@
     <row r="674"/>
     <row r="675"/>
     <row r="676"/>
-    <row r="677"/>
+    <row r="677">
+      <c r="B677" s="19" t="n"/>
+      <c r="C677" s="19" t="n"/>
+    </row>
     <row r="678"/>
     <row r="679"/>
     <row r="680"/>
@@ -2377,7 +1906,10 @@
     <row r="683"/>
     <row r="684"/>
     <row r="685"/>
-    <row r="686"/>
+    <row r="686">
+      <c r="B686" s="19" t="n"/>
+      <c r="C686" s="19" t="n"/>
+    </row>
     <row r="687"/>
     <row r="688"/>
     <row r="689"/>
@@ -2780,7 +2312,10 @@
     <row r="1059"/>
     <row r="1060"/>
     <row r="1061"/>
-    <row r="1062"/>
+    <row r="1062">
+      <c r="B1062" s="19" t="n"/>
+      <c r="C1062" s="19" t="n"/>
+    </row>
     <row r="1063"/>
     <row r="1064"/>
     <row r="1065"/>
@@ -2839,7 +2374,10 @@
     <row r="1115"/>
     <row r="1116"/>
     <row r="1117"/>
-    <row r="1118"/>
+    <row r="1118">
+      <c r="B1118" s="19" t="n"/>
+      <c r="C1118" s="19" t="n"/>
+    </row>
     <row r="1119"/>
     <row r="1120"/>
     <row r="1121"/>
@@ -2951,7 +2489,10 @@
     <row r="1224"/>
     <row r="1225"/>
     <row r="1226"/>
-    <row r="1227"/>
+    <row r="1227">
+      <c r="B1227" s="19" t="n"/>
+      <c r="C1227" s="19" t="n"/>
+    </row>
     <row r="1228"/>
     <row r="1229"/>
     <row r="1230"/>
@@ -3912,7 +3453,10 @@
     <row r="2146"/>
     <row r="2147"/>
     <row r="2148"/>
-    <row r="2149"/>
+    <row r="2149">
+      <c r="B2149" s="19" t="n"/>
+      <c r="C2149" s="19" t="n"/>
+    </row>
     <row r="2150"/>
     <row r="2151"/>
     <row r="2152"/>
@@ -5007,7 +4551,10 @@
     <row r="3235"/>
     <row r="3236"/>
     <row r="3237"/>
-    <row r="3238"/>
+    <row r="3238">
+      <c r="B3238" s="19" t="n"/>
+      <c r="C3238" s="19" t="n"/>
+    </row>
     <row r="3239"/>
     <row r="3240"/>
     <row r="3241"/>
@@ -7416,7 +6963,10 @@
     <row r="5620"/>
     <row r="5621"/>
     <row r="5622"/>
-    <row r="5623"/>
+    <row r="5623">
+      <c r="B5623" s="19" t="n"/>
+      <c r="C5623" s="19" t="n"/>
+    </row>
     <row r="5624"/>
     <row r="5625"/>
     <row r="5626"/>
